--- a/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.5_Flash_Python.xlsx
+++ b/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.5_Flash_Python.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Responses\QuixBugs_Gemini\APR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Analysis\QuixBugs_Gemini-APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{071E8159-9491-4E37-9E07-C558F78E2F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D680A93-EF6B-4E7B-87BF-77D433ED91A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{149ACCBC-4213-4F17-BA68-652395A2CB79}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_one_shot_Gemini_1.5_Flash_P" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="311">
   <si>
     <t>File Name</t>
   </si>
@@ -4037,6 +4050,388 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_detect_cycle.py F...F.                                                  [100%]
+==================================== FAILURES ===================================== 
+______________________________________ test1 ______________________________________ 
+    def test1():
+        """Case 1: 5-node list input with no cycle
+        Expected Output: Cycle not detected!
+        """
+&gt;       detected = detect_cycle(node5)
+test_detect_cycle.py:32:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+node = &lt;node.Node object at 0x000001E70E08C1A0&gt;
+    def detect_cycle(node):
+        hare = tortoise = node
+        while True:
+            # Change is here:
+            if hare is None:
+                return False
+            tortoise = tortoise.successor
+&gt;           hare = hare.successor.successor
+E           AttributeError: 'NoneType' object has no attribute 'successor'
+test_detect_cycle.py:13: AttributeError
+______________________________________ test5 ______________________________________ 
+    def test5():
+        """Case 5: 1-node list
+        Expected Output: Cycle not detected
+        """
+        node = Node(0)
+&gt;       detected = detect_cycle(node)
+test_detect_cycle.py:80:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+node = &lt;node.Node object at 0x000001E70E08DAF0&gt;
+    def detect_cycle(node):
+        hare = tortoise = node
+        while True:
+            # Change is here:
+            if hare is None:
+                return False
+            tortoise = tortoise.successor
+&gt;           hare = hare.successor.successor
+E           AttributeError: 'NoneType' object has no attribute 'successor'
+test_detect_cycle.py:13: AttributeError
+============================= short test summary info ============================= 
+FAILED test_detect_cycle.py::test1 - AttributeError: 'NoneType' object has no attribute 'successor'
+FAILED test_detect_cycle.py::test5 - AttributeError: 'NoneType' object has no attribute 'successor'
+=========================== 2 failed, 4 passed in 0.32s ===========================</t>
+  </si>
+  <si>
+    <t>collected 4 items
+test_kheapsort.py ....                                                       [100%]
+================================ 4 passed in 0.07s ================================</t>
+  </si>
+  <si>
+    <t>collected 7 items
+test_levenshtein.py FFFsF.F                                                  [100%]
+==================================== FAILURES ===================================== 
+_________________________ test_levenshtein[input_data0-3] _________________________ 
+input_data = ['electron', 'neutron'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 8 == 3
+E        +  where 8 = levenshtein(*['electron', 'neutron'])
+test_levenshtein.py:31: AssertionError
+_________________________ test_levenshtein[input_data1-3] _________________________ 
+input_data = ['kitten', 'sitting'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 7 == 3
+E        +  where 7 = levenshtein(*['kitten', 'sitting'])
+test_levenshtein.py:31: AssertionError
+_________________________ test_levenshtein[input_data2-8] _________________________ 
+input_data = ['rosettacode', 'raisethysword'], expected = 8
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 13 == 8
+E        +  where 13 = levenshtein(*['rosettacode', 'raisethysword'])
+test_levenshtein.py:31: AssertionError
+_________________________ test_levenshtein[input_data4-2] _________________________ 
+input_data = ['abcdefg', 'gabcdef'], expected = 2
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 7 == 2
+E        +  where 7 = levenshtein(*['abcdefg', 'gabcdef'])
+test_levenshtein.py:31: AssertionError
+_________________________ test_levenshtein[input_data6-4] _________________________ 
+input_data = ['hello', 'olleh'], expected = 4
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 5 == 4
+E        +  where 5 = levenshtein(*['hello', 'olleh'])
+test_levenshtein.py:31: AssertionError
+============================= short test summary info ============================= 
+FAILED test_levenshtein.py::test_levenshtein[input_data0-3] - AssertionError: assert 8 == 3
+FAILED test_levenshtein.py::test_levenshtein[input_data1-3] - AssertionError: assert 7 == 3
+FAILED test_levenshtein.py::test_levenshtein[input_data2-8] - AssertionError: assert 13 == 8
+FAILED test_levenshtein.py::test_levenshtein[input_data4-2] - AssertionError: assert 7 == 2
+FAILED test_levenshtein.py::test_levenshtein[input_data6-4] - AssertionError: assert 5 == 4
+===================== 5 failed, 1 passed, 1 skipped in 2.27s ======================</t>
+  </si>
+  <si>
+    <t>collected 12 items
+test_lis.py ....F.....F.                                                     [100%]
+==================================== FAILURES ===================================== 
+_____________________________ test_lis[input_data4-4] _____________________________ 
+input_data = [[5, 1, 3, 4, 7]], expected = 4
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lis(input_data, expected):
+&gt;       assert lis(*input_data) == expected
+E       assert 2 == 4
+E        +  where 2 = lis(*[[5, 1, 3, 4, 7]])
+test_lis.py:27: AssertionError
+____________________________ test_lis[input_data10-3] _____________________________ 
+input_data = [[7, 10, 9, 2, 3, 8, ...]], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lis(input_data, expected):
+&gt;       assert lis(*input_data) == expected
+E       assert 2 == 3
+E        +  where 2 = lis(*[[7, 10, 9, 2, 3, 8, ...]])
+test_lis.py:27: AssertionError
+============================= short test summary info ============================= 
+FAILED test_lis.py::test_lis[input_data4-4] - assert 2 == 4
+FAILED test_lis.py::test_lis[input_data10-3] - assert 2 == 3
+========================== 2 failed, 10 passed in 0.18s ===========================</t>
+  </si>
+  <si>
+    <t>.========================== 13 failed, 1 passed in 18.18s ==========================</t>
+  </si>
+  <si>
+    <t>collected 3 items
+test_minimum_spanning_tree.py FF.                                            [100%]
+==================================== FAILURES ===================================== 
+______________________________________ test1 ______________________________________ 
+    def test1():
+        """Case 1: Simple tree input.
+        Output: (1, 2) (3, 4) (1, 4)
+        """
+        result = minimum_spanning_tree(
+            {
+                (1, 2): 10,
+                (2, 3): 15,
+                (3, 4): 10,
+                (1, 4): 10,
+            }
+        )
+&gt;       assert result == {(1, 2), (3, 4), (1, 4)}
+E       assert {(1, 2), (1, ...2, 3), (3, 4)} == {(1, 2), (1, 4), (3, 4)}
+E
+E         Extra items in the left set:
+E         (2, 3)
+E         Use -v to get more diff
+test_minimum_spanning_tree.py:35: AssertionError
+______________________________________ test2 ______________________________________ 
+    def test2():
+        """Case 2: Strongly connected tree input.
+        Output: (2, 5) (1, 3) (2, 3) (4, 6) (3, 6)
+        """
+        result = minimum_spanning_tree(
+            {
+                (1, 2): 6,
+                (1, 3): 1,
+                (1, 4): 5,
+                (2, 3): 5,
+                (2, 5): 3,
+                (3, 4): 5,
+                (3, 5): 6,
+                (3, 6): 4,
+                (4, 6): 2,
+                (5, 6): 6,
+            }
+        )
+&gt;       assert result == {(2, 5), (1, 3), (2, 3), (4, 6), (3, 6)}
+E       assert {(1, 2), (1, ..., (3, 4), ...} == {(1, 3), (2, ...3, 6), (4, 6)}     
+E
+E         Extra items in the left set:
+E         (1, 2)
+E         (3, 4)
+E         (1, 4)
+E         (5, 6)
+E         (3, 5)
+E         Use -v to get more diff
+test_minimum_spanning_tree.py:58: AssertionError
+============================= short test summary info ============================= 
+FAILED test_minimum_spanning_tree.py::test1 - assert {(1, 2), (1, ...2, 3), (3, 4)} == {(1, 2), (1, 4), (3, 4)}
+FAILED test_minimum_spanning_tree.py::test2 - assert {(1, 2), (1, ..., (3, 4), ...} == {(1, 3), (2, ...3, 6), (4, 6)}
+=========================== 2 failed, 1 passed in 0.26s ===========================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILED test_possible_change.py::test_possible_change[input_data9-20] - ValueError: not enough values to unpack (expected at least 1, got 0)
+=========================== 9 failed, 1 passed in 1.38s =========================== </t>
+  </si>
+  <si>
+    <t>collected 5 items
+test_powerset.py FFF.F                                                       [100%]
+==================================== FAILURES ===================================== 
+______________________ test_powerset[input_data0-expected0] _______________________ 
+input_data = [['a', 'b', 'c']]
+expected = [[], ['c'], ['b'], ['b', 'c'], ['a'], ['a', 'c'], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a', 'b', '...], ['b'], ...] == [[], ['c'], [...a', 'c'], ...]
+E
+E         At index 0 diff: ['a', 'b', 'c'] != []
+E         Use -v to get more diff
+test_powerset.py:19: AssertionError
+______________________ test_powerset[input_data1-expected1] _______________________ 
+input_data = [['a', 'b']], expected = [[], ['b'], ['a'], ['a', 'b']]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a', 'b'], ['a'], ['b'], []] == [[], ['b'], ['a'], ['a', 'b']]
+E
+E         At index 0 diff: ['a', 'b'] != []
+E         Use -v to get more diff
+test_powerset.py:19: AssertionError
+______________________ test_powerset[input_data2-expected2] _______________________ 
+input_data = [['a']], expected = [[], ['a']]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a'], []] == [[], ['a']]
+E
+E         At index 0 diff: ['a'] != []
+E         Use -v to get more diff
+test_powerset.py:19: AssertionError
+______________________ test_powerset[input_data4-expected4] _______________________ 
+input_data = [['x', 'df', 'z', 'm']]
+expected = [[], ['m'], ['z'], ['z', 'm'], ['df'], ['df', 'm'], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['x', 'df', ...x', 'z'], ...] == [[], ['m'], [...f', 'm'], ...]
+E
+E         At index 0 diff: ['x', 'df', 'z', 'm'] != []
+E         Use -v to get more diff
+test_powerset.py:19: AssertionError
+============================= short test summary info ============================= 
+FAILED test_powerset.py::test_powerset[input_data0-expected0] - AssertionError: assert [['a', 'b', '...], ['b'], ...] == [[], ['c'], [...a', 'c...
+FAILED test_powerset.py::test_powerset[input_data1-expected1] - AssertionError: assert [['a', 'b'], ['a'], ['b'], []] == [[], ['b'], ['a'], ['a...
+FAILED test_powerset.py::test_powerset[input_data2-expected2] - AssertionError: assert [['a'], []] == [[], ['a']]
+FAILED test_powerset.py::test_powerset[input_data4-expected4] - AssertionError: assert [['x', 'df', ...x', 'z'], ...] == [[], ['m'], [...f', 'm...
+=========================== 4 failed, 1 passed in 0.17s ===========================</t>
+  </si>
+  <si>
+    <t>test_rpn_eval.py F.F..F                                                      [100%]
+==================================== FAILURES ===================================== 
+_________________________ test_rpn_eval[input_data0-4.0] __________________________ 
+input_data = [[3.0, 5.0, '+', 2.0, '/']], expected = 4.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert 0.25 == 4.0
+E        +  where 0.25 = rpn_eval(*[[3.0, 5.0, '+', 2.0, '/']])
+test_rpn_eval.py:34: AssertionError
+_________________________ test_rpn_eval[input_data2-8.0] __________________________ 
+input_data = [[7.0, 4.0, '+', 3.0, '-']], expected = 8.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert -8.0 == 8.0
+E        +  where -8.0 = rpn_eval(*[[7.0, 4.0, '+', 3.0, '-']])
+test_rpn_eval.py:34: AssertionError
+_________________________ test_rpn_eval[input_data5-14.0] _________________________ 
+input_data = [[5.0, 1.0, 2.0, '+', 4.0, '*', ...]], expected = 14.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert -14.0 == 14.0
+E        +  where -14.0 = rpn_eval(*[[5.0, 1.0, 2.0, '+', 4.0, '*', ...]])
+test_rpn_eval.py:34: AssertionError
+============================= short test summary info ============================= 
+FAILED test_rpn_eval.py::test_rpn_eval[input_data0-4.0] - AssertionError: assert 0.25 == 4.0
+FAILED test_rpn_eval.py::test_rpn_eval[input_data2-8.0] - AssertionError: assert -8.0 == 8.0
+FAILED test_rpn_eval.py::test_rpn_eval[input_data5-14.0] - AssertionError: assert -14.0 == 14.0
+=========================== 3 failed, 3 passed in 0.16s ===========================</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_sieve.py ......                                                         [100%] 
+================================ 6 passed in 0.05s ================================</t>
+  </si>
+  <si>
+    <t>collected 5 items
+test_wrap.py FFFFF                                                           [100%]
+==================================== FAILURES ===================================== 
+________________________ test_wrap[input_data0-expected0] _________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...thing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 50]
+expected = ['The leaves did not stir on the trees, grasshoppers', ' chirruped, and the monotonous hollow sound of the', ' sea ris...So it must have', ' sounded when there was no Yalta, no Oreanda here;', ' so it sounds now, and it will sound as', ...] 
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...ound as', ...] == ['The leaves ...ound as', ...]
+E
+E         Right contains one more item: ' dignity and the higher aims of our existence.'
+E         Use -v to get more diff
+test_wrap.py:22: AssertionError
+________________________ test_wrap[input_data1-expected1] _________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...thing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 20]
+expected = ['The leaves did not', ' stir on the trees,', ' grasshoppers', ' chirruped, and the', ' monotonous hollow', ' sound of the sea', ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...the sea', ...] == ['The leaves ...the sea', ...]
+E
+E         Right contains one more item: ' existence.'
+E         Use -v to get more diff
+test_wrap.py:22: AssertionError
+________________________ test_wrap[input_data2-expected2] _________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...thing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 80]
+expected = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous', ' hollow sound of the sea rising ...his constancy, in this complete', ' indifference to the life and death of each of us, there lies hid, perhaps, a', ...] 
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...haps, a', ...] == ['The leaves ...haps, a', ...]
+E
+E         Right contains one more item: ' of our existence.'
+E         Use -v to get more diff
+test_wrap.py:22: AssertionError
+________________________ test_wrap[input_data3-expected3] _________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...thing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 77]
+expected = ['The leaves did not stir on the trees, grasshoppers chirruped, and the', ' monotonous hollow sound of the sea rising ...e. And in this constancy, in this', ' complete indifference to the life and death of each of us, there lies hid,', ...] 
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...es hid,', ...] == ['The leaves ...es hid,', ...]
+E
+E         Right contains one more item: ' human dignity and the higher aims of our existence.'
+E         Use -v to get more diff
+test_wrap.py:22: AssertionError
+________________________ test_wrap[input_data4-expected4] _________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...hing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 140]
+expected = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...a, mountains, clouds, the open sky - Gurov thought how in reality everything is beautiful in this world when one', ...] 
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...rld when one'] == ['The leaves ...hen one', ...]
+E
+E         Right contains one more item: ' reflects: everything except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.'
+E         Use -v to get more diff
+test_wrap.py:22: AssertionError
+============================= short test summary info ============================= 
+FAILED test_wrap.py::test_wrap[input_data0-expected0] - AssertionError: assert ['The leaves ...ound as', ...] == ['The leaves ...ound a...
+FAILED test_wrap.py::test_wrap[input_data1-expected1] - AssertionError: assert ['The leaves ...the sea', ...] == ['The leaves ...the se...
+FAILED test_wrap.py::test_wrap[input_data2-expected2] - AssertionError: assert ['The leaves ...haps, a', ...] == ['The leaves ...haps, ...
+FAILED test_wrap.py::test_wrap[input_data3-expected3] - AssertionError: assert ['The leaves ...es hid,', ...] == ['The leaves ...es hid...
+FAILED test_wrap.py::test_wrap[input_data4-expected4] - AssertionError: assert ['The leaves ...rld when one'] == ['The leaves ...hen on...
+================================ 5 failed in 0.19s ================================</t>
+  </si>
+  <si>
+    <t>Test Cases (For responses that are not identical to the correct code)</t>
   </si>
 </sst>
 </file>
@@ -4932,16 +5327,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D09F18-2FC2-4D78-9E05-5E9B389427D5}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="11" width="62.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="62.86328125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="47.58984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="9" width="34.76953125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="62.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4972,8 +5371,11 @@
       <c r="J1" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5005,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5037,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5069,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5101,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -5132,8 +5534,11 @@
       <c r="J6" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -5165,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -5197,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -5229,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -5261,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -5293,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -5325,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -5357,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -5388,8 +5793,11 @@
       <c r="J14" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -5421,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -5453,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -5485,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
@@ -5516,8 +5924,11 @@
       <c r="J18" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -5548,8 +5959,11 @@
       <c r="J19" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -5581,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -5613,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
@@ -5644,8 +6058,11 @@
       <c r="J22" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
@@ -5676,8 +6093,11 @@
       <c r="J23" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K23" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
         <v>117</v>
       </c>
@@ -5709,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
@@ -5741,7 +6161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>127</v>
       </c>
@@ -5769,7 +6189,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>132</v>
       </c>
@@ -5801,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>137</v>
       </c>
@@ -5832,8 +6252,11 @@
       <c r="J28" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K28" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>142</v>
       </c>
@@ -5864,8 +6287,11 @@
       <c r="J29" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K29" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -5897,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>152</v>
       </c>
@@ -5929,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>157</v>
       </c>
@@ -5960,8 +6386,11 @@
       <c r="J32" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K32" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
         <v>162</v>
       </c>
@@ -5993,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -6025,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
         <v>172</v>
       </c>
@@ -6057,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
         <v>177</v>
       </c>
@@ -6089,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
         <v>182</v>
       </c>
@@ -6118,10 +6547,13 @@
         <v>289</v>
       </c>
       <c r="J37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
         <v>187</v>
       </c>
@@ -6153,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
         <v>192</v>
       </c>
@@ -6185,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
         <v>197</v>
       </c>
@@ -6217,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>202</v>
       </c>
@@ -6249,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
         <v>207</v>
       </c>
@@ -6280,8 +6712,11 @@
       <c r="J42" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K42" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C43" s="4" t="s">
         <v>296</v>
       </c>
@@ -6298,10 +6733,10 @@
       </c>
       <c r="J43" s="1">
         <f>COUNTIF(J2:J42,TRUE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C44" s="4" t="s">
         <v>297</v>
       </c>
@@ -6318,10 +6753,10 @@
       </c>
       <c r="J44" s="1">
         <f>COUNTIF(J2:J42,FALSE)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C45" s="4" t="s">
         <v>298</v>
       </c>
@@ -6338,7 +6773,7 @@
       </c>
       <c r="J45" s="1">
         <f>J43/(J43+J44)*100</f>
-        <v>75</v>
+        <v>77.5</v>
       </c>
     </row>
   </sheetData>
